--- a/PythonResources/Data/Consumption/Sympheny/base_1569_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1569_coo.xlsx
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>18.5987863342147</v>
+        <v>18.59878633421469</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>6.906600018404862</v>
+        <v>6.906600018404861</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>1.855702371120546</v>
+        <v>1.855702371120545</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>2.086917836362028</v>
+        <v>2.086917836362027</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>5.682735360955084</v>
+        <v>5.682735360955083</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>1.861106601073461</v>
+        <v>1.86110660107346</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>6.938661990034413</v>
+        <v>6.938661990034412</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>5.544259295187598</v>
+        <v>5.544259295187597</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>3.043865114640599</v>
+        <v>3.043865114640598</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>24.34441474006651</v>
+        <v>24.3444147400665</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>7.601354222655448</v>
+        <v>7.601354222655447</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>7.056945461238132</v>
+        <v>7.056945461238131</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>1357</v>
       </c>
       <c r="B1357">
-        <v>7.528877754794496</v>
+        <v>7.528877754794495</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>5.407336505925017</v>
+        <v>5.407336505925016</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>10.86660519990083</v>
+        <v>10.86660519990082</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>10.73355094834858</v>
+        <v>10.73355094834857</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>6.793562518793181</v>
+        <v>6.79356251879318</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>19.97481347493745</v>
+        <v>19.97481347493744</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>18.45450746188172</v>
+        <v>18.45450746188171</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>7.995739919382019</v>
+        <v>7.995739919382018</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>5.412377327789993</v>
+        <v>5.412377327789992</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>6.725687266239214</v>
+        <v>6.725687266239213</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>6.188136367126574</v>
+        <v>6.188136367126573</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>9.484482181573922</v>
+        <v>9.48448218157392</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18287,7 +18287,7 @@
         <v>2243</v>
       </c>
       <c r="B2243">
-        <v>25.15613359584684</v>
+        <v>25.15613359584683</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>34.51439008106932</v>
+        <v>34.51439008106931</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>9.320333092819702</v>
+        <v>9.3203330928197</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>5.984188231322144</v>
+        <v>5.984188231322143</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18695,7 +18695,7 @@
         <v>2294</v>
       </c>
       <c r="B2294">
-        <v>28.05443032558434</v>
+        <v>28.05443032558433</v>
       </c>
     </row>
     <row r="2295" spans="1:2">
@@ -18719,7 +18719,7 @@
         <v>2297</v>
       </c>
       <c r="B2297">
-        <v>36.18313657520702</v>
+        <v>36.18313657520701</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>7.897414585911138</v>
+        <v>7.897414585911137</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>2.755779214346883</v>
+        <v>2.755779214346882</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>6.957418536508739</v>
+        <v>6.957418536508738</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>14.63215774724499</v>
+        <v>14.63215774724498</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20079,7 +20079,7 @@
         <v>2467</v>
       </c>
       <c r="B2467">
-        <v>2.304822015027511</v>
+        <v>2.30482201502751</v>
       </c>
     </row>
     <row r="2468" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>5.457012046978115</v>
+        <v>5.457012046978114</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20431,7 +20431,7 @@
         <v>2511</v>
       </c>
       <c r="B2511">
-        <v>13.07548161829139</v>
+        <v>13.07548161829138</v>
       </c>
     </row>
     <row r="2512" spans="1:2">
@@ -20663,7 +20663,7 @@
         <v>2540</v>
       </c>
       <c r="B2540">
-        <v>6.046436519933813</v>
+        <v>6.046436519933812</v>
       </c>
     </row>
     <row r="2541" spans="1:2">
@@ -21183,7 +21183,7 @@
         <v>2605</v>
       </c>
       <c r="B2605">
-        <v>5.921764100087278</v>
+        <v>5.921764100087277</v>
       </c>
     </row>
     <row r="2606" spans="1:2">
@@ -21239,7 +21239,7 @@
         <v>2612</v>
       </c>
       <c r="B2612">
-        <v>0.5394617222847116</v>
+        <v>0.5394617222847115</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>2.192886462521197</v>
+        <v>2.192886462521196</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>6.42335518275617</v>
+        <v>6.423355182756169</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>7.605164146158045</v>
+        <v>7.605164146158044</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>4.234642051825511</v>
+        <v>4.23464205182551</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>17.70694185646436</v>
+        <v>17.70694185646435</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>4.004112372814497</v>
+        <v>4.004112372814496</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>7.071511091859601</v>
+        <v>7.0715110918596</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>3.894796875393815</v>
+        <v>3.894796875393814</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>12.87927055790762</v>
+        <v>12.87927055790761</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>23.16679669251749</v>
+        <v>23.16679669251748</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>44.90874060927125</v>
+        <v>44.90874060927124</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>38.31317688419768</v>
+        <v>38.31317688419767</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23823,7 +23823,7 @@
         <v>2935</v>
       </c>
       <c r="B2935">
-        <v>10.44906689112001</v>
+        <v>10.44906689112</v>
       </c>
     </row>
     <row r="2936" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>0.7697305680713171</v>
+        <v>0.769730568071317</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>35.8443464545145</v>
+        <v>35.84434645451449</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>12.58083631923877</v>
+        <v>12.58083631923876</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>45.41604657719404</v>
+        <v>45.41604657719403</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>41.22747529264609</v>
+        <v>41.22747529264608</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>37.05707441249515</v>
+        <v>37.05707441249514</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>39.61998064558861</v>
+        <v>39.6199806455886</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>34.6366007041911</v>
+        <v>34.63660070419109</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>35.0164207702962</v>
+        <v>35.01642077029619</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>17.7526023242878</v>
+        <v>17.75260232428779</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>63.95249670148547</v>
+        <v>63.95249670148546</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>46.68211346421105</v>
+        <v>46.68211346421104</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>3.718983559300874</v>
+        <v>3.718983559300873</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>6.484665644044123</v>
+        <v>6.484665644044122</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>63.09409162924639</v>
+        <v>63.09409162924638</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>31.67189407709293</v>
+        <v>31.67189407709292</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>4.2719499950471</v>
+        <v>4.271949995047099</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>22.33485593506953</v>
+        <v>22.33485593506952</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>24.77001250241052</v>
+        <v>24.77001250241051</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>3.397250173058449</v>
+        <v>3.397250173058448</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26583,7 +26583,7 @@
         <v>3280</v>
       </c>
       <c r="B3280">
-        <v>51.38766206095761</v>
+        <v>51.3876620609576</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>9.521584975068448</v>
+        <v>9.521584975068446</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>9.720873281358164</v>
+        <v>9.720873281358161</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>10.97586208311378</v>
+        <v>10.97586208311377</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>6.489589237493634</v>
+        <v>6.489589237493633</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>4.14396587246369</v>
+        <v>4.143965872463689</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26815,7 +26815,7 @@
         <v>3309</v>
       </c>
       <c r="B3309">
-        <v>3.385732481239058</v>
+        <v>3.385732481239057</v>
       </c>
     </row>
     <row r="3310" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>7.242137050568236</v>
+        <v>7.242137050568235</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26951,7 +26951,7 @@
         <v>3326</v>
       </c>
       <c r="B3326">
-        <v>15.57540688517653</v>
+        <v>15.57540688517652</v>
       </c>
     </row>
     <row r="3327" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>13.80613702477799</v>
+        <v>13.80613702477798</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>5.81529139174161</v>
+        <v>5.815291391741609</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27167,7 +27167,7 @@
         <v>3353</v>
       </c>
       <c r="B3353">
-        <v>12.33588754512562</v>
+        <v>12.33588754512561</v>
       </c>
     </row>
     <row r="3354" spans="1:2">
@@ -27183,7 +27183,7 @@
         <v>3355</v>
       </c>
       <c r="B3355">
-        <v>6.494454216735412</v>
+        <v>6.494454216735411</v>
       </c>
     </row>
     <row r="3356" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>7.024795568296982</v>
+        <v>7.024795568296981</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27679,7 +27679,7 @@
         <v>3417</v>
       </c>
       <c r="B3417">
-        <v>14.9768385958146</v>
+        <v>14.97683859581459</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>28.3012840614488</v>
+        <v>28.30128406144879</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>48.91648706296515</v>
+        <v>48.91648706296514</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>45.74956141919065</v>
+        <v>45.74956141919064</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>46.06549199886758</v>
+        <v>46.06549199886757</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28255,7 +28255,7 @@
         <v>3489</v>
       </c>
       <c r="B3489">
-        <v>36.3970784334298</v>
+        <v>36.39707843342979</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>56.24590066884673</v>
+        <v>56.24590066884672</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28815,7 +28815,7 @@
         <v>3559</v>
       </c>
       <c r="B3559">
-        <v>46.99042419688279</v>
+        <v>46.99042419688278</v>
       </c>
     </row>
     <row r="3560" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>3561</v>
       </c>
       <c r="B3561">
-        <v>61.63664935398352</v>
+        <v>61.63664935398351</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>65.49258500965084</v>
+        <v>65.49258500965082</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>69.18645238093843</v>
+        <v>69.18645238093842</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>64.67520988282435</v>
+        <v>64.67520988282433</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>51.70329956959588</v>
+        <v>51.70329956959587</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>57.05624209074535</v>
+        <v>57.05624209074534</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>60.97430880660888</v>
+        <v>60.97430880660887</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>69.16388591096151</v>
+        <v>69.1638859109615</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>49.49207858289603</v>
+        <v>49.49207858289602</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>67.54320306716427</v>
+        <v>67.54320306716426</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29375,7 +29375,7 @@
         <v>3629</v>
       </c>
       <c r="B3629">
-        <v>31.00574360621569</v>
+        <v>31.00574360621568</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>60.70702801934973</v>
+        <v>60.70702801934972</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>36.72561106776917</v>
+        <v>36.72561106776916</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>7.197326488756916</v>
+        <v>7.197326488756915</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>33.14633447259816</v>
+        <v>33.14633447259815</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>46.84769860105471</v>
+        <v>46.8476986010547</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30143,7 +30143,7 @@
         <v>3725</v>
       </c>
       <c r="B3725">
-        <v>20.0600971471879</v>
+        <v>20.06009714718789</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>50.90849091274631</v>
+        <v>50.9084909127463</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>55.35672313754821</v>
+        <v>55.3567231375482</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30239,7 +30239,7 @@
         <v>3737</v>
       </c>
       <c r="B3737">
-        <v>46.98016671052964</v>
+        <v>46.98016671052963</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>18.9145703783723</v>
+        <v>18.91457037837229</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>49.88215613535428</v>
+        <v>49.88215613535427</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>54.12641091724788</v>
+        <v>54.12641091724787</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>81.06872457242402</v>
+        <v>81.068724572424</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>79.86449567456455</v>
+        <v>79.86449567456454</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>72.11393898612661</v>
+        <v>72.1139389861266</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>45.5816317140377</v>
+        <v>45.58163171403769</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>54.44761677562072</v>
+        <v>54.44761677562071</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>37.69391777950625</v>
+        <v>37.69391777950624</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>38.09630431558828</v>
+        <v>38.09630431558827</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>34.83032066074625</v>
+        <v>34.83032066074624</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>42.44518545828398</v>
+        <v>42.44518545828397</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31407,7 +31407,7 @@
         <v>3883</v>
       </c>
       <c r="B3883">
-        <v>42.28985780779347</v>
+        <v>42.28985780779346</v>
       </c>
     </row>
     <row r="3884" spans="1:2">
@@ -31439,7 +31439,7 @@
         <v>3887</v>
       </c>
       <c r="B3887">
-        <v>2.062695515016668</v>
+        <v>2.062695515016667</v>
       </c>
     </row>
     <row r="3888" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>41.26850523805868</v>
+        <v>41.26850523805867</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>56.04983614398229</v>
+        <v>56.04983614398228</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>60.05728952663753</v>
+        <v>60.05728952663752</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31583,7 +31583,7 @@
         <v>3905</v>
       </c>
       <c r="B3905">
-        <v>63.84845648276069</v>
+        <v>63.84845648276068</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -31663,7 +31663,7 @@
         <v>3915</v>
       </c>
       <c r="B3915">
-        <v>8.152972531623831</v>
+        <v>8.15297253162383</v>
       </c>
     </row>
     <row r="3916" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>59.71087955893982</v>
+        <v>59.71087955893981</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31711,7 +31711,7 @@
         <v>3921</v>
       </c>
       <c r="B3921">
-        <v>66.26218955717553</v>
+        <v>66.26218955717552</v>
       </c>
     </row>
     <row r="3922" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>71.13566785907504</v>
+        <v>71.13566785907503</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>72.43983398111803</v>
+        <v>72.43983398111801</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31983,7 +31983,7 @@
         <v>3955</v>
       </c>
       <c r="B3955">
-        <v>75.54609391988963</v>
+        <v>75.54609391988961</v>
       </c>
     </row>
     <row r="3956" spans="1:2">
@@ -32023,7 +32023,7 @@
         <v>3960</v>
       </c>
       <c r="B3960">
-        <v>28.06199155838181</v>
+        <v>28.0619915583818</v>
       </c>
     </row>
     <row r="3961" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>89.8432714699447</v>
+        <v>89.84327146994468</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>81.90456317468617</v>
+        <v>81.90456317468616</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>74.04527713090488</v>
+        <v>74.04527713090486</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>76.33562729804329</v>
+        <v>76.33562729804328</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>61.33859610766493</v>
+        <v>61.33859610766492</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>60.61500371321007</v>
+        <v>60.61500371321006</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>59.11477306630264</v>
+        <v>59.11477306630263</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32599,7 +32599,7 @@
         <v>4032</v>
       </c>
       <c r="B4032">
-        <v>9.940119725380717</v>
+        <v>9.940119725380711</v>
       </c>
     </row>
     <row r="4033" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>74.31548862855064</v>
+        <v>74.31548862855063</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>75.30636181026465</v>
+        <v>75.30636181026463</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>71.63769854830193</v>
+        <v>71.63769854830191</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32759,7 +32759,7 @@
         <v>4052</v>
       </c>
       <c r="B4052">
-        <v>65.10514509654054</v>
+        <v>65.10514509654053</v>
       </c>
     </row>
     <row r="4053" spans="1:2">
@@ -32767,7 +32767,7 @@
         <v>4053</v>
       </c>
       <c r="B4053">
-        <v>54.00888943074468</v>
+        <v>54.00888943074467</v>
       </c>
     </row>
     <row r="4054" spans="1:2">
@@ -32815,7 +32815,7 @@
         <v>4059</v>
       </c>
       <c r="B4059">
-        <v>17.19723270602455</v>
+        <v>17.19723270602454</v>
       </c>
     </row>
     <row r="4060" spans="1:2">
@@ -32823,7 +32823,7 @@
         <v>4060</v>
       </c>
       <c r="B4060">
-        <v>47.36760662363994</v>
+        <v>47.36760662363993</v>
       </c>
     </row>
     <row r="4061" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>48.08064846070299</v>
+        <v>48.08064846070298</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>67.3450870450292</v>
+        <v>67.34508704502919</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>66.19595550243807</v>
+        <v>66.19595550243805</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>77.19403237028237</v>
+        <v>77.19403237028236</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>75.20906222542908</v>
+        <v>75.20906222542907</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>81.20705410267217</v>
+        <v>81.20705410267216</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33319,7 +33319,7 @@
         <v>4122</v>
       </c>
       <c r="B4122">
-        <v>66.94504507725647</v>
+        <v>66.94504507725645</v>
       </c>
     </row>
     <row r="4123" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>47.9736775315916</v>
+        <v>47.97367753159159</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33575,7 +33575,7 @@
         <v>4154</v>
       </c>
       <c r="B4154">
-        <v>16.87614407606718</v>
+        <v>16.87614407606717</v>
       </c>
     </row>
     <row r="4155" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>65.74755681328621</v>
+        <v>65.7475568132862</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>77.66558367148848</v>
+        <v>77.66558367148846</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>63.87864279974281</v>
+        <v>63.8786427997428</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>79.28568037320839</v>
+        <v>79.28568037320838</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>54.12641091724788</v>
+        <v>54.12641091724787</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>69.1055647742679</v>
+        <v>69.10556477426789</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>63.02023772750373</v>
+        <v>63.02023772750372</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>59.15257923028995</v>
+        <v>59.15257923028994</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>63.04837254721522</v>
+        <v>63.04837254721521</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>47.4945063833803</v>
+        <v>47.49450638338029</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>59.7466342256565</v>
+        <v>59.74663422565649</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>65.76015886794865</v>
+        <v>65.76015886794863</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>54.78875146462252</v>
+        <v>54.78875146462251</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>63.62894627480334</v>
+        <v>63.62894627480333</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>58.96940983112661</v>
+        <v>58.9694098311266</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>57.88387470392499</v>
+        <v>57.88387470392498</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>79.57113156486454</v>
+        <v>79.57113156486453</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>48.79134572945675</v>
+        <v>48.79134572945674</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>14.11676301865515</v>
+        <v>14.11676301865514</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>51.70095500128659</v>
+        <v>51.70095500128658</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>63.99616428624601</v>
+        <v>63.996164286246</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>71.10049933443568</v>
+        <v>71.10049933443567</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>68.12934514448696</v>
+        <v>68.12934514448695</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>66.46616700008383</v>
+        <v>66.46616700008381</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>65.71443978591748</v>
+        <v>65.71443978591746</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>81.28325257272412</v>
+        <v>81.28325257272411</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35439,7 +35439,7 @@
         <v>4387</v>
       </c>
       <c r="B4387">
-        <v>50.06532553451762</v>
+        <v>50.06532553451761</v>
       </c>
     </row>
     <row r="4388" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>47.23513851416501</v>
+        <v>47.235138514165</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>54.91887500578816</v>
+        <v>54.91887500578815</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>62.59440550832879</v>
+        <v>62.59440550832878</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35639,7 +35639,7 @@
         <v>4412</v>
       </c>
       <c r="B4412">
-        <v>63.12486408830583</v>
+        <v>63.12486408830582</v>
       </c>
     </row>
     <row r="4413" spans="1:2">
@@ -35903,7 +35903,7 @@
         <v>4445</v>
       </c>
       <c r="B4445">
-        <v>54.74010167220474</v>
+        <v>54.74010167220473</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>74.22873960110688</v>
+        <v>74.22873960110687</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>81.22170765460524</v>
+        <v>81.22170765460523</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -35999,7 +35999,7 @@
         <v>4457</v>
       </c>
       <c r="B4457">
-        <v>82.56690372206081</v>
+        <v>82.5669037220608</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>48.69463228669851</v>
+        <v>48.6946322866985</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>68.15718689315979</v>
+        <v>68.15718689315977</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>78.51343818633575</v>
+        <v>78.51343818633573</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>70.88597133413558</v>
+        <v>70.88597133413556</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>93.47090478649484</v>
+        <v>93.4709047864948</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>77.02844723343871</v>
+        <v>77.0284472334387</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>71.67872849371452</v>
+        <v>71.6787284937145</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36591,7 +36591,7 @@
         <v>4531</v>
       </c>
       <c r="B4531">
-        <v>79.04653440566074</v>
+        <v>79.04653440566072</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>55.86901131312824</v>
+        <v>55.86901131312823</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>60.26097389850716</v>
+        <v>60.26097389850715</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36815,7 +36815,7 @@
         <v>4559</v>
       </c>
       <c r="B4559">
-        <v>15.86472661454301</v>
+        <v>15.864726614543</v>
       </c>
     </row>
     <row r="4560" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>51.64497843290227</v>
+        <v>51.64497843290226</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>52.44476929740908</v>
+        <v>52.44476929740907</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>59.66721197417928</v>
+        <v>59.66721197417927</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>60.71201022700697</v>
+        <v>60.71201022700696</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>6.203463982448562</v>
+        <v>6.203463982448561</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>55.38456488622104</v>
+        <v>55.38456488622103</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>59.33897241087857</v>
+        <v>59.33897241087856</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>68.43531130884941</v>
+        <v>68.43531130884939</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>39.15106698373046</v>
+        <v>39.15106698373045</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>69.83677701572796</v>
+        <v>69.83677701572795</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>69.39570510254264</v>
+        <v>69.39570510254262</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37431,7 +37431,7 @@
         <v>4636</v>
       </c>
       <c r="B4636">
-        <v>51.42077908832634</v>
+        <v>51.42077908832633</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>78.48559643766292</v>
+        <v>78.48559643766291</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37599,7 +37599,7 @@
         <v>4657</v>
       </c>
       <c r="B4657">
-        <v>24.16274000320034</v>
+        <v>24.16274000320033</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>21.92206537711503</v>
+        <v>21.92206537711502</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>53.56342145197944</v>
+        <v>53.56342145197943</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>66.94768271660442</v>
+        <v>66.9476827166044</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>46.39900684086419</v>
+        <v>46.39900684086418</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>61.1530821401923</v>
+        <v>61.15308214019229</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37967,7 +37967,7 @@
         <v>4703</v>
       </c>
       <c r="B4703">
-        <v>6.451812380610186</v>
+        <v>6.451812380610185</v>
       </c>
     </row>
     <row r="4704" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>7.408103179762156</v>
+        <v>7.408103179762155</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38143,7 +38143,7 @@
         <v>4725</v>
       </c>
       <c r="B4725">
-        <v>47.93030301786972</v>
+        <v>47.93030301786971</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38167,7 +38167,7 @@
         <v>4728</v>
       </c>
       <c r="B4728">
-        <v>15.29162619844075</v>
+        <v>15.29162619844074</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>47.09739512599418</v>
+        <v>47.09739512599417</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>63.4533967226452</v>
+        <v>63.45339672264519</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>68.15249775654121</v>
+        <v>68.15249775654119</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38311,7 +38311,7 @@
         <v>4746</v>
       </c>
       <c r="B4746">
-        <v>67.60738562463111</v>
+        <v>67.60738562463109</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38359,7 +38359,7 @@
         <v>4752</v>
       </c>
       <c r="B4752">
-        <v>20.63639203761157</v>
+        <v>20.63639203761156</v>
       </c>
     </row>
     <row r="4753" spans="1:2">
@@ -38375,7 +38375,7 @@
         <v>4754</v>
       </c>
       <c r="B4754">
-        <v>23.48038270388513</v>
+        <v>23.48038270388512</v>
       </c>
     </row>
     <row r="4755" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>76.46282012882232</v>
+        <v>76.4628201288223</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>31.03739527839112</v>
+        <v>31.03739527839111</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>55.90945511646351</v>
+        <v>55.9094551164635</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38599,7 +38599,7 @@
         <v>4782</v>
       </c>
       <c r="B4782">
-        <v>58.72733315319234</v>
+        <v>58.72733315319233</v>
       </c>
     </row>
     <row r="4783" spans="1:2">
@@ -38703,7 +38703,7 @@
         <v>4795</v>
       </c>
       <c r="B4795">
-        <v>79.17372723643976</v>
+        <v>79.17372723643975</v>
       </c>
     </row>
     <row r="4796" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>36.08642313244877</v>
+        <v>36.08642313244876</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>32.75127471248266</v>
+        <v>32.75127471248265</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38767,7 +38767,7 @@
         <v>4803</v>
       </c>
       <c r="B4803">
-        <v>26.02673042329423</v>
+        <v>26.02673042329422</v>
       </c>
     </row>
     <row r="4804" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>87.19654691979409</v>
+        <v>87.19654691979407</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>89.72135391786158</v>
+        <v>89.72135391786156</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38895,7 +38895,7 @@
         <v>4819</v>
       </c>
       <c r="B4819">
-        <v>81.15019832117187</v>
+        <v>81.15019832117186</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>77.63774192281565</v>
+        <v>77.63774192281564</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>28.06026243925371</v>
+        <v>28.0602624392537</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>85.28513760564479</v>
+        <v>85.28513760564478</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39103,7 +39103,7 @@
         <v>4845</v>
       </c>
       <c r="B4845">
-        <v>81.04879574179505</v>
+        <v>81.04879574179503</v>
       </c>
     </row>
     <row r="4846" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>86.31762687484871</v>
+        <v>86.3176268748487</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>89.58097289034279</v>
+        <v>89.58097289034278</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>85.53542027266158</v>
+        <v>85.53542027266157</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39279,7 +39279,7 @@
         <v>4867</v>
       </c>
       <c r="B4867">
-        <v>82.19001436634233</v>
+        <v>82.19001436634231</v>
       </c>
     </row>
     <row r="4868" spans="1:2">
@@ -39327,7 +39327,7 @@
         <v>4873</v>
       </c>
       <c r="B4873">
-        <v>29.23638582450555</v>
+        <v>29.23638582450554</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39335,7 +39335,7 @@
         <v>4874</v>
       </c>
       <c r="B4874">
-        <v>30.22089936468061</v>
+        <v>30.2208993646806</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>63.12750172765378</v>
+        <v>63.12750172765377</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>75.01299770056464</v>
+        <v>75.01299770056463</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>87.92453537982887</v>
+        <v>87.92453537982885</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>85.8871055190552</v>
+        <v>85.88710551905518</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>70.22099314741298</v>
+        <v>70.22099314741297</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>53.58598792195636</v>
+        <v>53.58598792195635</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>54.93411469979855</v>
+        <v>54.93411469979854</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>54.96224951951004</v>
+        <v>54.96224951951003</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39567,7 +39567,7 @@
         <v>4903</v>
       </c>
       <c r="B4903">
-        <v>61.75651540879601</v>
+        <v>61.756515408796</v>
       </c>
     </row>
     <row r="4904" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>64.98058990510947</v>
+        <v>64.98058990510945</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>67.25833801758544</v>
+        <v>67.25833801758543</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>66.68010885830661</v>
+        <v>66.6801088583066</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>55.45109201199716</v>
+        <v>55.45109201199715</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>56.0345964499719</v>
+        <v>56.03459644997189</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>68.60353408504102</v>
+        <v>68.60353408504101</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>73.63790838716561</v>
+        <v>73.6379083871656</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>69.45197474196561</v>
+        <v>69.4519747419656</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39951,7 +39951,7 @@
         <v>4951</v>
       </c>
       <c r="B4951">
-        <v>66.64962947028583</v>
+        <v>66.64962947028582</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>72.46826187186818</v>
+        <v>72.46826187186817</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>64.47123243991605</v>
+        <v>64.47123243991604</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>16.5593049761704</v>
+        <v>16.55930497617039</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>43.39825247601068</v>
+        <v>43.39825247601067</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>42.40474165494872</v>
+        <v>42.40474165494871</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>45.94093680743651</v>
+        <v>45.9409368074365</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40247,7 +40247,7 @@
         <v>4988</v>
       </c>
       <c r="B4988">
-        <v>40.47838571782769</v>
+        <v>40.47838571782768</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>59.89668659745111</v>
+        <v>59.8966865974511</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>60.72226771336012</v>
+        <v>60.72226771336011</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>44.10631210541649</v>
+        <v>44.10631210541648</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>57.0278141999952</v>
+        <v>57.02781419999519</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>51.15848050872444</v>
+        <v>51.15848050872443</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>51.31908343791086</v>
+        <v>51.31908343791085</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>44.51895612785166</v>
+        <v>44.51895612785165</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40655,7 +40655,7 @@
         <v>5039</v>
       </c>
       <c r="B5039">
-        <v>9.833734938346646</v>
+        <v>9.833734938346645</v>
       </c>
     </row>
     <row r="5040" spans="1:2">
@@ -40823,7 +40823,7 @@
         <v>5060</v>
       </c>
       <c r="B5060">
-        <v>52.08311963570098</v>
+        <v>52.08311963570097</v>
       </c>
     </row>
     <row r="5061" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>63.66968314917727</v>
+        <v>63.66968314917726</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40991,7 +40991,7 @@
         <v>5081</v>
       </c>
       <c r="B5081">
-        <v>69.09765185622405</v>
+        <v>69.09765185622403</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -40999,7 +40999,7 @@
         <v>5082</v>
       </c>
       <c r="B5082">
-        <v>66.01718216885465</v>
+        <v>66.01718216885463</v>
       </c>
     </row>
     <row r="5083" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>58.68923391816637</v>
+        <v>58.68923391816636</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41023,7 +41023,7 @@
         <v>5085</v>
       </c>
       <c r="B5085">
-        <v>44.49111437917883</v>
+        <v>44.49111437917882</v>
       </c>
     </row>
     <row r="5086" spans="1:2">
@@ -41071,7 +41071,7 @@
         <v>5091</v>
       </c>
       <c r="B5091">
-        <v>15.99810324423779</v>
+        <v>15.99810324423778</v>
       </c>
     </row>
     <row r="5092" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>60.90338561525283</v>
+        <v>60.90338561525282</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41191,7 +41191,7 @@
         <v>5106</v>
       </c>
       <c r="B5106">
-        <v>70.17527406538181</v>
+        <v>70.1752740653818</v>
       </c>
     </row>
     <row r="5107" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>68.63137583371385</v>
+        <v>68.63137583371383</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>55.88190643882934</v>
+        <v>55.88190643882933</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>62.06453307042908</v>
+        <v>62.06453307042907</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41399,7 +41399,7 @@
         <v>5132</v>
       </c>
       <c r="B5132">
-        <v>60.8702685878841</v>
+        <v>60.87026858788409</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>50.10606240889155</v>
+        <v>50.10606240889154</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>64.60633818873893</v>
+        <v>64.60633818873892</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>69.2784766870781</v>
+        <v>69.27847668707808</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>76.64159346240574</v>
+        <v>76.64159346240572</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41871,7 +41871,7 @@
         <v>5191</v>
       </c>
       <c r="B5191">
-        <v>59.62413053149606</v>
+        <v>59.62413053149605</v>
       </c>
     </row>
     <row r="5192" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>60.75538474072885</v>
+        <v>60.75538474072884</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>62.30426518005406</v>
+        <v>62.30426518005405</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41951,7 +41951,7 @@
         <v>5201</v>
       </c>
       <c r="B5201">
-        <v>57.69572309710441</v>
+        <v>57.6957230971044</v>
       </c>
     </row>
     <row r="5202" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>40.47105894186116</v>
+        <v>40.47105894186115</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>9.306236375860092</v>
+        <v>9.30623637586009</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>6.848454724334451</v>
+        <v>6.84845472433445</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42255,7 +42255,7 @@
         <v>5239</v>
       </c>
       <c r="B5239">
-        <v>23.51162407660643</v>
+        <v>23.51162407660642</v>
       </c>
     </row>
     <row r="5240" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>45.04882856575137</v>
+        <v>45.04882856575136</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42367,7 +42367,7 @@
         <v>5253</v>
       </c>
       <c r="B5253">
-        <v>27.78506873395071</v>
+        <v>27.7850687339507</v>
       </c>
     </row>
     <row r="5254" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>53.99101209738634</v>
+        <v>53.99101209738633</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>51.80792593039798</v>
+        <v>51.80792593039797</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>32.79230465789525</v>
+        <v>32.79230465789524</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>47.23719001143564</v>
+        <v>47.23719001143563</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>65.3223107361886</v>
+        <v>65.32231073618858</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>65.08990540253015</v>
+        <v>65.08990540253014</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42943,7 +42943,7 @@
         <v>5325</v>
       </c>
       <c r="B5325">
-        <v>52.46293970180609</v>
+        <v>52.46293970180608</v>
       </c>
     </row>
     <row r="5326" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>59.1097908586454</v>
+        <v>59.10979085864539</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>75.97661527568314</v>
+        <v>75.97661527568313</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43167,7 +43167,7 @@
         <v>5353</v>
       </c>
       <c r="B5353">
-        <v>15.85306238720429</v>
+        <v>15.85306238720428</v>
       </c>
     </row>
     <row r="5354" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>76.40449899212871</v>
+        <v>76.40449899212869</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>82.89338485912955</v>
+        <v>82.89338485912954</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43279,7 +43279,7 @@
         <v>5367</v>
       </c>
       <c r="B5367">
-        <v>86.50372698439867</v>
+        <v>86.50372698439865</v>
       </c>
     </row>
     <row r="5368" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>57.68048340309402</v>
+        <v>57.68048340309401</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>54.61789104908296</v>
+        <v>54.61789104908295</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>65.08785390525952</v>
+        <v>65.08785390525951</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>76.29987263132661</v>
+        <v>76.29987263132659</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>70.9396033342106</v>
+        <v>70.93960333421059</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43783,7 +43783,7 @@
         <v>5430</v>
       </c>
       <c r="B5430">
-        <v>24.79032232538975</v>
+        <v>24.79032232538974</v>
       </c>
     </row>
     <row r="5431" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>43.38799498965753</v>
+        <v>43.38799498965752</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>48.60290105159751</v>
+        <v>48.6029010515975</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -43895,7 +43895,7 @@
         <v>5444</v>
       </c>
       <c r="B5444">
-        <v>38.5449960757788</v>
+        <v>38.54499607577879</v>
       </c>
     </row>
     <row r="5445" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>50.43488811426958</v>
+        <v>50.43488811426957</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>8.128618328311074</v>
+        <v>8.128618328311072</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>42.16999175298098</v>
+        <v>42.16999175298097</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>66.06348739296314</v>
+        <v>66.06348739296313</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>61.87345075322188</v>
+        <v>61.87345075322187</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44287,7 +44287,7 @@
         <v>5493</v>
       </c>
       <c r="B5493">
-        <v>60.16689809509687</v>
+        <v>60.16689809509686</v>
       </c>
     </row>
     <row r="5494" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>25.29414074795246</v>
+        <v>25.29414074795245</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>58.46503457359044</v>
+        <v>58.46503457359043</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44487,7 +44487,7 @@
         <v>5518</v>
       </c>
       <c r="B5518">
-        <v>10.79427526755921</v>
+        <v>10.7942752675592</v>
       </c>
     </row>
     <row r="5519" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>49.53310852830862</v>
+        <v>49.53310852830861</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>74.79905584234186</v>
+        <v>74.79905584234184</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44863,7 +44863,7 @@
         <v>5565</v>
       </c>
       <c r="B5565">
-        <v>58.20771820164578</v>
+        <v>58.20771820164577</v>
       </c>
     </row>
     <row r="5566" spans="1:2">
@@ -44927,7 +44927,7 @@
         <v>5573</v>
       </c>
       <c r="B5573">
-        <v>48.67939259268812</v>
+        <v>48.67939259268811</v>
       </c>
     </row>
     <row r="5574" spans="1:2">
@@ -45023,7 +45023,7 @@
         <v>5585</v>
       </c>
       <c r="B5585">
-        <v>61.48425241387962</v>
+        <v>61.48425241387961</v>
       </c>
     </row>
     <row r="5586" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>52.6182673522966</v>
+        <v>52.61826735229659</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>38.39699520125482</v>
+        <v>38.39699520125481</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>54.12406634893859</v>
+        <v>54.12406634893858</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>55.73625013261465</v>
+        <v>55.73625013261464</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45263,7 +45263,7 @@
         <v>5615</v>
       </c>
       <c r="B5615">
-        <v>4.80229134660867</v>
+        <v>4.802291346608669</v>
       </c>
     </row>
     <row r="5616" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>26.33753225979459</v>
+        <v>26.33753225979458</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>38.56023576978919</v>
+        <v>38.56023576978918</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>51.98376855359479</v>
+        <v>51.98376855359478</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>46.90367516943903</v>
+        <v>46.90367516943902</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45615,7 +45615,7 @@
         <v>5659</v>
       </c>
       <c r="B5659">
-        <v>40.14487087583108</v>
+        <v>40.14487087583107</v>
       </c>
     </row>
     <row r="5660" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>29.43136598652694</v>
+        <v>29.43136598652693</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>44.91665352731511</v>
+        <v>44.9166535273151</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45775,7 +45775,7 @@
         <v>5679</v>
       </c>
       <c r="B5679">
-        <v>64.88651410169918</v>
+        <v>64.88651410169916</v>
       </c>
     </row>
     <row r="5680" spans="1:2">
@@ -45807,7 +45807,7 @@
         <v>5683</v>
       </c>
       <c r="B5683">
-        <v>54.43442857888096</v>
+        <v>54.43442857888095</v>
       </c>
     </row>
     <row r="5684" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>45.98929352881563</v>
+        <v>45.98929352881562</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45863,7 +45863,7 @@
         <v>5690</v>
       </c>
       <c r="B5690">
-        <v>6.143501647938451</v>
+        <v>6.14350164793845</v>
       </c>
     </row>
     <row r="5691" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>6.998917395583185</v>
+        <v>6.998917395583184</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -45999,7 +45999,7 @@
         <v>5707</v>
       </c>
       <c r="B5707">
-        <v>66.85565841046476</v>
+        <v>66.85565841046474</v>
       </c>
     </row>
     <row r="5708" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>65.26076581806971</v>
+        <v>65.2607658180697</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>40.81746890955887</v>
+        <v>40.81746890955886</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46287,7 +46287,7 @@
         <v>5743</v>
       </c>
       <c r="B5743">
-        <v>49.2019382546213</v>
+        <v>49.20193825462129</v>
       </c>
     </row>
     <row r="5744" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>67.34244940568125</v>
+        <v>67.34244940568124</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>61.35178430440469</v>
+        <v>61.35178430440468</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>23.774215727247</v>
+        <v>23.77421572724699</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>65.98201364421529</v>
+        <v>65.98201364421527</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>64.84079501966801</v>
+        <v>64.84079501966799</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>37.16140770225859</v>
+        <v>37.16140770225858</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>30.66812576967782</v>
+        <v>30.66812576967781</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46743,7 +46743,7 @@
         <v>5800</v>
       </c>
       <c r="B5800">
-        <v>48.93436439632349</v>
+        <v>48.93436439632348</v>
       </c>
     </row>
     <row r="5801" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>47.97865973924884</v>
+        <v>47.97865973924883</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>56.32766748863325</v>
+        <v>56.32766748863324</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>75.55869597455207</v>
+        <v>75.55869597455205</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>79.70096203499152</v>
+        <v>79.70096203499151</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>34.641875982887</v>
+        <v>34.64187598288699</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>36.771623220839</v>
+        <v>36.77162322083899</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>52.9928121397058</v>
+        <v>52.99281213970579</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>52.56434228118291</v>
+        <v>52.5643422811829</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>62.75764607686316</v>
+        <v>62.75764607686315</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>57.50932991651579</v>
+        <v>57.50932991651578</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>48.35085995834875</v>
+        <v>48.35085995834874</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>56.87277962054335</v>
+        <v>56.87277962054334</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>56.93139382827562</v>
+        <v>56.93139382827561</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>59.44359877168067</v>
+        <v>59.44359877168066</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>63.84845648276069</v>
+        <v>63.84845648276068</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>48.89069681156295</v>
+        <v>48.89069681156294</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -48895,7 +48895,7 @@
         <v>6069</v>
       </c>
       <c r="B6069">
-        <v>47.84150249315533</v>
+        <v>47.84150249315532</v>
       </c>
     </row>
     <row r="6070" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>45.03358887174098</v>
+        <v>45.03358887174097</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49271,7 +49271,7 @@
         <v>6116</v>
       </c>
       <c r="B6116">
-        <v>44.54210873990591</v>
+        <v>44.5421087399059</v>
       </c>
     </row>
     <row r="6117" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>46.593019868458</v>
+        <v>46.59301986845799</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>51.6068791978763</v>
+        <v>51.60687919787629</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49663,7 +49663,7 @@
         <v>6165</v>
       </c>
       <c r="B6165">
-        <v>35.70689613738233</v>
+        <v>35.70689613738232</v>
       </c>
     </row>
     <row r="6166" spans="1:2">
@@ -49727,7 +49727,7 @@
         <v>6173</v>
       </c>
       <c r="B6173">
-        <v>3.463425613588181</v>
+        <v>3.46342561358818</v>
       </c>
     </row>
     <row r="6174" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>48.89362752194956</v>
+        <v>48.89362752194955</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>49.14801318350761</v>
+        <v>49.1480131835076</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>47.35471149793884</v>
+        <v>47.35471149793883</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>51.99666367929589</v>
+        <v>51.99666367929588</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>22.88067143747242</v>
+        <v>22.88067143747241</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>33.83680983968429</v>
+        <v>33.83680983968428</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>59.9119262914615</v>
+        <v>59.91192629146149</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>57.72884012447314</v>
+        <v>57.72884012447313</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>59.66516047690865</v>
+        <v>59.66516047690864</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>44.89086327591291</v>
+        <v>44.8908632759129</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>51.51778560212325</v>
+        <v>51.51778560212324</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>59.98841783255211</v>
+        <v>59.9884178325521</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>64.70305163149717</v>
+        <v>64.70305163149716</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50991,7 +50991,7 @@
         <v>6331</v>
       </c>
       <c r="B6331">
-        <v>15.95868518953784</v>
+        <v>15.95868518953783</v>
       </c>
     </row>
     <row r="6332" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>26.5974862710872</v>
+        <v>26.59748627108719</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51159,7 +51159,7 @@
         <v>6352</v>
       </c>
       <c r="B6352">
-        <v>30.3240603702894</v>
+        <v>30.32406037028939</v>
       </c>
     </row>
     <row r="6353" spans="1:2">
@@ -51359,7 +51359,7 @@
         <v>6377</v>
       </c>
       <c r="B6377">
-        <v>27.35988127106082</v>
+        <v>27.35988127106081</v>
       </c>
     </row>
     <row r="6378" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>22.59932324035753</v>
+        <v>22.59932324035752</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>9.341170443668524</v>
+        <v>9.341170443668522</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>13.87732398006883</v>
+        <v>13.87732398006882</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>17.88255002283024</v>
+        <v>17.88255002283023</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>19.39761006429393</v>
+        <v>19.39761006429392</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51575,7 +51575,7 @@
         <v>6404</v>
       </c>
       <c r="B6404">
-        <v>4.478916762549742</v>
+        <v>4.478916762549741</v>
       </c>
     </row>
     <row r="6405" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>19.7831743227568</v>
+        <v>19.78317432275679</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>25.37713846610136</v>
+        <v>25.37713846610135</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51743,7 +51743,7 @@
         <v>6425</v>
       </c>
       <c r="B6425">
-        <v>27.79183867494378</v>
+        <v>27.79183867494377</v>
       </c>
     </row>
     <row r="6426" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>7.349488972029887</v>
+        <v>7.349488972029886</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>3.407771423346391</v>
+        <v>3.40777142334639</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>21.41194592722109</v>
+        <v>21.41194592722108</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>27.31448456717218</v>
+        <v>27.31448456717217</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>34.80482348038271</v>
+        <v>34.8048234803827</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>40.89132281130153</v>
+        <v>40.89132281130152</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>39.43417360707732</v>
+        <v>39.43417360707731</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>31.48462168338833</v>
+        <v>31.48462168338832</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>34.18087523907271</v>
+        <v>34.1808752390727</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>4.360164377684165</v>
+        <v>4.360164377684164</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52823,7 +52823,7 @@
         <v>6560</v>
       </c>
       <c r="B6560">
-        <v>6.182597324495875</v>
+        <v>6.182597324495874</v>
       </c>
     </row>
     <row r="6561" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>6.556204284581358</v>
+        <v>6.556204284581357</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>5.814998320702949</v>
+        <v>5.814998320702948</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>22.77792073131775</v>
+        <v>22.77792073131774</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>46.042632457852</v>
+        <v>46.04263245785199</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>35.22508734982308</v>
+        <v>35.22508734982307</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53103,7 +53103,7 @@
         <v>6595</v>
       </c>
       <c r="B6595">
-        <v>28.32692777733166</v>
+        <v>28.32692777733165</v>
       </c>
     </row>
     <row r="6596" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>47.58154848186272</v>
+        <v>47.58154848186271</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>53.47637935349702</v>
+        <v>53.47637935349701</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>3.336672389367149</v>
+        <v>3.336672389367148</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>46.18770262198936</v>
+        <v>46.18770262198935</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>48.79134572945675</v>
+        <v>48.79134572945674</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>48.44259119344975</v>
+        <v>48.44259119344974</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>46.94704968316091</v>
+        <v>46.9470496831609</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>9.33308168300147</v>
+        <v>9.333081683001469</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>5.151925095731655</v>
+        <v>5.151925095731654</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54423,7 +54423,7 @@
         <v>6760</v>
       </c>
       <c r="B6760">
-        <v>15.35387448705242</v>
+        <v>15.35387448705241</v>
       </c>
     </row>
     <row r="6761" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>22.23260344968059</v>
+        <v>22.23260344968058</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>38.22115257805801</v>
+        <v>38.221152578058</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>40.12699354247274</v>
+        <v>40.12699354247273</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>55.26528497348587</v>
+        <v>55.26528497348586</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>56.62572073495184</v>
+        <v>56.62572073495183</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>9.265411580174566</v>
+        <v>9.265411580174565</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>3.47761025185939</v>
+        <v>3.477610251859389</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>9.422233892962252</v>
+        <v>9.42223389296225</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>6.076036694838609</v>
+        <v>6.076036694838608</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>8.176388907612873</v>
+        <v>8.176388907612871</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>9.117733083793114</v>
+        <v>9.117733083793112</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>6.400437027532853</v>
+        <v>6.400437027532852</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -55983,7 +55983,7 @@
         <v>6955</v>
       </c>
       <c r="B6955">
-        <v>3.503781495611848</v>
+        <v>3.503781495611847</v>
       </c>
     </row>
     <row r="6956" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>5.59299700891698</v>
+        <v>5.592997008916979</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>20.20648613099924</v>
+        <v>20.20648613099923</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>29.12068137844205</v>
+        <v>29.12068137844204</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>28.16251492464265</v>
+        <v>28.16251492464264</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56567,7 +56567,7 @@
         <v>7028</v>
       </c>
       <c r="B7028">
-        <v>7.916171132385464</v>
+        <v>7.916171132385463</v>
       </c>
     </row>
     <row r="7029" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>38.84539389040668</v>
+        <v>38.84539389040667</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>44.188078925203</v>
+        <v>44.18807892520299</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>31.00808817452498</v>
+        <v>31.00808817452497</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>3.899368783596932</v>
+        <v>3.899368783596931</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>41.51028884495429</v>
+        <v>41.51028884495428</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57111,7 +57111,7 @@
         <v>7096</v>
       </c>
       <c r="B7096">
-        <v>53.85356178025417</v>
+        <v>53.85356178025416</v>
       </c>
     </row>
     <row r="7097" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>56.26114036285712</v>
+        <v>56.26114036285711</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>53.92272654537825</v>
+        <v>53.92272654537824</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57319,7 +57319,7 @@
         <v>7122</v>
       </c>
       <c r="B7122">
-        <v>45.15609256590143</v>
+        <v>45.15609256590142</v>
       </c>
     </row>
     <row r="7123" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>8.000634205727664</v>
+        <v>8.000634205727662</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57383,7 +57383,7 @@
         <v>7130</v>
       </c>
       <c r="B7130">
-        <v>11.07442187341559</v>
+        <v>11.07442187341558</v>
       </c>
     </row>
     <row r="7131" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>44.61860028099652</v>
+        <v>44.61860028099651</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>25.06466612468063</v>
+        <v>25.06466612468062</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>9.474400537843971</v>
+        <v>9.47440053784397</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>1.73945867434591</v>
+        <v>1.739458674345909</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>4.725682577102595</v>
+        <v>4.725682577102594</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>5.730886932607143</v>
+        <v>5.730886932607142</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>6.703443174404817</v>
+        <v>6.703443174404816</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>15.53273574194744</v>
+        <v>15.53273574194743</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>7.927307831854595</v>
+        <v>7.927307831854594</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>0.8518783802080923</v>
+        <v>0.8518783802080921</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>7.598218362541771</v>
+        <v>7.59821836254177</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>8.949568921809234</v>
+        <v>8.949568921809233</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>5.272670363660129</v>
+        <v>5.272670363660128</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>1.42810586429287</v>
+        <v>1.428105864292869</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>24.85640984460788</v>
+        <v>24.85640984460787</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>6.274152716973679</v>
+        <v>6.274152716973678</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>3.498506216915944</v>
+        <v>3.498506216915943</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>0.6522852800381697</v>
+        <v>0.6522852800381695</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>5.392858796615148</v>
+        <v>5.392858796615147</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>25.93845742644943</v>
+        <v>25.93845742644942</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>31.2733174645135</v>
+        <v>31.27331746451349</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>41.39306042948975</v>
+        <v>41.39306042948974</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>30.64526622866224</v>
+        <v>30.64526622866223</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>6.406503598033143</v>
+        <v>6.406503598033142</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
